--- a/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
+++ b/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,103 +452,103 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1368</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>432</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>160</v>
@@ -556,145 +556,385 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>272</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45432</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45439</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>544</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45446</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>736</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45453</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45460</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>736</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45481</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>848</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45502</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45509</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>864</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>96</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45537</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>48</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>144</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45558</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>192</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B32" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
         <v>992</v>
       </c>
     </row>
@@ -709,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,81 +971,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1440</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>688</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1408</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2592</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1088</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1456</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>384</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>992</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
+++ b/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -965,7 +966,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1127,6 +1128,1013 @@
       </c>
       <c r="B21" t="n">
         <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-319.9685429563868</v>
+      </c>
+      <c r="D2" t="n">
+        <v>376.3912971710783</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-280.4913563981954</v>
+      </c>
+      <c r="D3" t="n">
+        <v>422.0849427592263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-254.5472908263584</v>
+      </c>
+      <c r="D4" t="n">
+        <v>467.760426414392</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-262.7022757336387</v>
+      </c>
+      <c r="D5" t="n">
+        <v>461.9700942561909</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>101</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-248.8019979955205</v>
+      </c>
+      <c r="D6" t="n">
+        <v>455.7163132605318</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>110</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-243.7722311638711</v>
+      </c>
+      <c r="D7" t="n">
+        <v>480.4463933518363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>114</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-242.1392877080404</v>
+      </c>
+      <c r="D8" t="n">
+        <v>487.7316379006663</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-245.1690488310549</v>
+      </c>
+      <c r="D9" t="n">
+        <v>464.3645426627177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>127</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-223.5433889681864</v>
+      </c>
+      <c r="D10" t="n">
+        <v>485.5430194391527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>131</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-231.4177988667169</v>
+      </c>
+      <c r="D11" t="n">
+        <v>463.8325462909695</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>136</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-220.9405940020765</v>
+      </c>
+      <c r="D12" t="n">
+        <v>485.9590137286376</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>140</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-194.3802175659778</v>
+      </c>
+      <c r="D13" t="n">
+        <v>519.7215039043109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>144</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-236.4503977200042</v>
+      </c>
+      <c r="D14" t="n">
+        <v>499.5248360768907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>149</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-208.9341704978302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>482.488876162671</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>161</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-163.7650152830959</v>
+      </c>
+      <c r="D16" t="n">
+        <v>504.8496375912809</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>170</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-176.4187437450903</v>
+      </c>
+      <c r="D17" t="n">
+        <v>521.4327558069159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>174</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-165.4560269531928</v>
+      </c>
+      <c r="D18" t="n">
+        <v>520.8633512875024</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>187</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-164.3556267893002</v>
+      </c>
+      <c r="D19" t="n">
+        <v>511.1482257506889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>191</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-160.3312222758042</v>
+      </c>
+      <c r="D20" t="n">
+        <v>560.3707468799902</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-163.5997568239636</v>
+      </c>
+      <c r="D21" t="n">
+        <v>571.7037528985917</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>204</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-152.562261784916</v>
+      </c>
+      <c r="D22" t="n">
+        <v>543.2542539908403</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>208</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-138.8786468559357</v>
+      </c>
+      <c r="D23" t="n">
+        <v>563.973026838199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>213</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-162.0186614208338</v>
+      </c>
+      <c r="D24" t="n">
+        <v>555.3528346198947</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>217</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-140.671407294941</v>
+      </c>
+      <c r="D25" t="n">
+        <v>567.6870920461408</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>221</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-126.9517450539723</v>
+      </c>
+      <c r="D26" t="n">
+        <v>574.6347581372793</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>226</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-129.1792556616787</v>
+      </c>
+      <c r="D27" t="n">
+        <v>563.41822418098</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>230</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-137.0682621265865</v>
+      </c>
+      <c r="D28" t="n">
+        <v>598.1463291197176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>238</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-110.6685463449515</v>
+      </c>
+      <c r="D29" t="n">
+        <v>624.561850143986</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>243</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-108.5245446585746</v>
+      </c>
+      <c r="D30" t="n">
+        <v>613.4095217955287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>247</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-117.2013943398303</v>
+      </c>
+      <c r="D31" t="n">
+        <v>614.5563853063397</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>268</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-47.07288024579269</v>
+      </c>
+      <c r="D32" t="n">
+        <v>620.0035381107182</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>277</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-100.0203697223883</v>
+      </c>
+      <c r="D33" t="n">
+        <v>650.4613110151421</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>290</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-56.84760311385759</v>
+      </c>
+      <c r="D34" t="n">
+        <v>637.3905263620478</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>294</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-68.3283101225874</v>
+      </c>
+      <c r="D35" t="n">
+        <v>631.7679691118626</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>298</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-63.31436358479044</v>
+      </c>
+      <c r="D36" t="n">
+        <v>672.2558479197266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>303</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-31.54824706818674</v>
+      </c>
+      <c r="D37" t="n">
+        <v>668.4462764618791</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>307</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-78.14015460875696</v>
+      </c>
+      <c r="D38" t="n">
+        <v>649.1865393647207</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>311</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-36.6470723068541</v>
+      </c>
+      <c r="D39" t="n">
+        <v>658.4779213020892</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>316</v>
+      </c>
+      <c r="C40" t="n">
+        <v>18.52022725296345</v>
+      </c>
+      <c r="D40" t="n">
+        <v>680.1132854546338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>320</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-37.65822578241712</v>
+      </c>
+      <c r="D41" t="n">
+        <v>674.6064769589825</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>324</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-26.90983956096409</v>
+      </c>
+      <c r="D42" t="n">
+        <v>673.9870990725274</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>328</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-19.02759872571339</v>
+      </c>
+      <c r="D43" t="n">
+        <v>673.1548667518067</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>337</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-24.04571053562657</v>
+      </c>
+      <c r="D44" t="n">
+        <v>696.2396033680282</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>341</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-9.502454328585516</v>
+      </c>
+      <c r="D45" t="n">
+        <v>686.0661627029971</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>346</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.790800104704386</v>
+      </c>
+      <c r="D46" t="n">
+        <v>699.4494248521837</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>350</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.406951863223717</v>
+      </c>
+      <c r="D47" t="n">
+        <v>721.049617922164</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>354</v>
+      </c>
+      <c r="C48" t="n">
+        <v>21.37068329864386</v>
+      </c>
+      <c r="D48" t="n">
+        <v>720.7517613469406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>358</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-3.00584603076056</v>
+      </c>
+      <c r="D49" t="n">
+        <v>681.4798823409446</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>363</v>
+      </c>
+      <c r="C50" t="n">
+        <v>22.98789688180685</v>
+      </c>
+      <c r="D50" t="n">
+        <v>718.7119626088013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>367</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49.64962653783871</v>
+      </c>
+      <c r="D51" t="n">
+        <v>753.1257679660774</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>371</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18.8366155685107</v>
+      </c>
+      <c r="D52" t="n">
+        <v>735.427495086809</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>380</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.745948451030511</v>
+      </c>
+      <c r="D53" t="n">
+        <v>724.2844332182709</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>384</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31.67666876272718</v>
+      </c>
+      <c r="D54" t="n">
+        <v>739.0014283711428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>397</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30.19646188130806</v>
+      </c>
+      <c r="D55" t="n">
+        <v>770.1782128157218</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>401</v>
+      </c>
+      <c r="C56" t="n">
+        <v>95.67561726391304</v>
+      </c>
+      <c r="D56" t="n">
+        <v>763.0361617298474</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>410</v>
+      </c>
+      <c r="C57" t="n">
+        <v>66.40129309108843</v>
+      </c>
+      <c r="D57" t="n">
+        <v>765.6063429911634</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>414</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56.86532764708802</v>
+      </c>
+      <c r="D58" t="n">
+        <v>779.1958964243117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>418</v>
+      </c>
+      <c r="C59" t="n">
+        <v>74.3969612762633</v>
+      </c>
+      <c r="D59" t="n">
+        <v>801.0576555406134</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>427</v>
+      </c>
+      <c r="C60" t="n">
+        <v>63.57720631138834</v>
+      </c>
+      <c r="D60" t="n">
+        <v>819.1841657180864</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>431</v>
+      </c>
+      <c r="C61" t="n">
+        <v>76.43795407557249</v>
+      </c>
+      <c r="D61" t="n">
+        <v>774.8071006256999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>453</v>
+      </c>
+      <c r="C62" t="n">
+        <v>94.37100758435501</v>
+      </c>
+      <c r="D62" t="n">
+        <v>820.116707537319</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>457</v>
+      </c>
+      <c r="C63" t="n">
+        <v>104.5635758890956</v>
+      </c>
+      <c r="D63" t="n">
+        <v>801.4720767894507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>461</v>
+      </c>
+      <c r="C64" t="n">
+        <v>121.1114224617793</v>
+      </c>
+      <c r="D64" t="n">
+        <v>815.4980317036354</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>465</v>
+      </c>
+      <c r="C65" t="n">
+        <v>124.4861507962638</v>
+      </c>
+      <c r="D65" t="n">
+        <v>814.182321186645</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>470</v>
+      </c>
+      <c r="C66" t="n">
+        <v>135.8296722432809</v>
+      </c>
+      <c r="D66" t="n">
+        <v>825.036094236673</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>474</v>
+      </c>
+      <c r="C67" t="n">
+        <v>136.8442081189297</v>
+      </c>
+      <c r="D67" t="n">
+        <v>830.8948156271952</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>478</v>
+      </c>
+      <c r="C68" t="n">
+        <v>132.5873921572982</v>
+      </c>
+      <c r="D68" t="n">
+        <v>841.4662607242471</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>483</v>
+      </c>
+      <c r="C69" t="n">
+        <v>115.6063781267159</v>
+      </c>
+      <c r="D69" t="n">
+        <v>839.7292026132671</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>487</v>
+      </c>
+      <c r="C70" t="n">
+        <v>137.74517546868</v>
+      </c>
+      <c r="D70" t="n">
+        <v>842.4179404422808</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
+++ b/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
@@ -1141,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,16 +1160,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1178,12 +1168,6 @@
       <c r="B2" t="n">
         <v>46</v>
       </c>
-      <c r="C2" t="n">
-        <v>-319.9685429563868</v>
-      </c>
-      <c r="D2" t="n">
-        <v>376.3912971710783</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1192,12 +1176,6 @@
       <c r="B3" t="n">
         <v>84</v>
       </c>
-      <c r="C3" t="n">
-        <v>-280.4913563981954</v>
-      </c>
-      <c r="D3" t="n">
-        <v>422.0849427592263</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1206,12 +1184,6 @@
       <c r="B4" t="n">
         <v>93</v>
       </c>
-      <c r="C4" t="n">
-        <v>-254.5472908263584</v>
-      </c>
-      <c r="D4" t="n">
-        <v>467.760426414392</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1220,12 +1192,6 @@
       <c r="B5" t="n">
         <v>97</v>
       </c>
-      <c r="C5" t="n">
-        <v>-262.7022757336387</v>
-      </c>
-      <c r="D5" t="n">
-        <v>461.9700942561909</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1234,12 +1200,6 @@
       <c r="B6" t="n">
         <v>101</v>
       </c>
-      <c r="C6" t="n">
-        <v>-248.8019979955205</v>
-      </c>
-      <c r="D6" t="n">
-        <v>455.7163132605318</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1248,12 +1208,6 @@
       <c r="B7" t="n">
         <v>110</v>
       </c>
-      <c r="C7" t="n">
-        <v>-243.7722311638711</v>
-      </c>
-      <c r="D7" t="n">
-        <v>480.4463933518363</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1262,12 +1216,6 @@
       <c r="B8" t="n">
         <v>114</v>
       </c>
-      <c r="C8" t="n">
-        <v>-242.1392877080404</v>
-      </c>
-      <c r="D8" t="n">
-        <v>487.7316379006663</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1276,12 +1224,6 @@
       <c r="B9" t="n">
         <v>119</v>
       </c>
-      <c r="C9" t="n">
-        <v>-245.1690488310549</v>
-      </c>
-      <c r="D9" t="n">
-        <v>464.3645426627177</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1290,12 +1232,6 @@
       <c r="B10" t="n">
         <v>127</v>
       </c>
-      <c r="C10" t="n">
-        <v>-223.5433889681864</v>
-      </c>
-      <c r="D10" t="n">
-        <v>485.5430194391527</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1304,12 +1240,6 @@
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" t="n">
-        <v>-231.4177988667169</v>
-      </c>
-      <c r="D11" t="n">
-        <v>463.8325462909695</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1318,12 +1248,6 @@
       <c r="B12" t="n">
         <v>136</v>
       </c>
-      <c r="C12" t="n">
-        <v>-220.9405940020765</v>
-      </c>
-      <c r="D12" t="n">
-        <v>485.9590137286376</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1332,12 +1256,6 @@
       <c r="B13" t="n">
         <v>140</v>
       </c>
-      <c r="C13" t="n">
-        <v>-194.3802175659778</v>
-      </c>
-      <c r="D13" t="n">
-        <v>519.7215039043109</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1346,12 +1264,6 @@
       <c r="B14" t="n">
         <v>144</v>
       </c>
-      <c r="C14" t="n">
-        <v>-236.4503977200042</v>
-      </c>
-      <c r="D14" t="n">
-        <v>499.5248360768907</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1360,12 +1272,6 @@
       <c r="B15" t="n">
         <v>149</v>
       </c>
-      <c r="C15" t="n">
-        <v>-208.9341704978302</v>
-      </c>
-      <c r="D15" t="n">
-        <v>482.488876162671</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1374,12 +1280,6 @@
       <c r="B16" t="n">
         <v>161</v>
       </c>
-      <c r="C16" t="n">
-        <v>-163.7650152830959</v>
-      </c>
-      <c r="D16" t="n">
-        <v>504.8496375912809</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1388,12 +1288,6 @@
       <c r="B17" t="n">
         <v>170</v>
       </c>
-      <c r="C17" t="n">
-        <v>-176.4187437450903</v>
-      </c>
-      <c r="D17" t="n">
-        <v>521.4327558069159</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1402,12 +1296,6 @@
       <c r="B18" t="n">
         <v>174</v>
       </c>
-      <c r="C18" t="n">
-        <v>-165.4560269531928</v>
-      </c>
-      <c r="D18" t="n">
-        <v>520.8633512875024</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1416,12 +1304,6 @@
       <c r="B19" t="n">
         <v>187</v>
       </c>
-      <c r="C19" t="n">
-        <v>-164.3556267893002</v>
-      </c>
-      <c r="D19" t="n">
-        <v>511.1482257506889</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1430,12 +1312,6 @@
       <c r="B20" t="n">
         <v>191</v>
       </c>
-      <c r="C20" t="n">
-        <v>-160.3312222758042</v>
-      </c>
-      <c r="D20" t="n">
-        <v>560.3707468799902</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1444,12 +1320,6 @@
       <c r="B21" t="n">
         <v>200</v>
       </c>
-      <c r="C21" t="n">
-        <v>-163.5997568239636</v>
-      </c>
-      <c r="D21" t="n">
-        <v>571.7037528985917</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1458,12 +1328,6 @@
       <c r="B22" t="n">
         <v>204</v>
       </c>
-      <c r="C22" t="n">
-        <v>-152.562261784916</v>
-      </c>
-      <c r="D22" t="n">
-        <v>543.2542539908403</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1472,12 +1336,6 @@
       <c r="B23" t="n">
         <v>208</v>
       </c>
-      <c r="C23" t="n">
-        <v>-138.8786468559357</v>
-      </c>
-      <c r="D23" t="n">
-        <v>563.973026838199</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1486,12 +1344,6 @@
       <c r="B24" t="n">
         <v>213</v>
       </c>
-      <c r="C24" t="n">
-        <v>-162.0186614208338</v>
-      </c>
-      <c r="D24" t="n">
-        <v>555.3528346198947</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1500,12 +1352,6 @@
       <c r="B25" t="n">
         <v>217</v>
       </c>
-      <c r="C25" t="n">
-        <v>-140.671407294941</v>
-      </c>
-      <c r="D25" t="n">
-        <v>567.6870920461408</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1514,12 +1360,6 @@
       <c r="B26" t="n">
         <v>221</v>
       </c>
-      <c r="C26" t="n">
-        <v>-126.9517450539723</v>
-      </c>
-      <c r="D26" t="n">
-        <v>574.6347581372793</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1528,12 +1368,6 @@
       <c r="B27" t="n">
         <v>226</v>
       </c>
-      <c r="C27" t="n">
-        <v>-129.1792556616787</v>
-      </c>
-      <c r="D27" t="n">
-        <v>563.41822418098</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1542,12 +1376,6 @@
       <c r="B28" t="n">
         <v>230</v>
       </c>
-      <c r="C28" t="n">
-        <v>-137.0682621265865</v>
-      </c>
-      <c r="D28" t="n">
-        <v>598.1463291197176</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1556,12 +1384,6 @@
       <c r="B29" t="n">
         <v>238</v>
       </c>
-      <c r="C29" t="n">
-        <v>-110.6685463449515</v>
-      </c>
-      <c r="D29" t="n">
-        <v>624.561850143986</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1570,12 +1392,6 @@
       <c r="B30" t="n">
         <v>243</v>
       </c>
-      <c r="C30" t="n">
-        <v>-108.5245446585746</v>
-      </c>
-      <c r="D30" t="n">
-        <v>613.4095217955287</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1584,12 +1400,6 @@
       <c r="B31" t="n">
         <v>247</v>
       </c>
-      <c r="C31" t="n">
-        <v>-117.2013943398303</v>
-      </c>
-      <c r="D31" t="n">
-        <v>614.5563853063397</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1598,12 +1408,6 @@
       <c r="B32" t="n">
         <v>268</v>
       </c>
-      <c r="C32" t="n">
-        <v>-47.07288024579269</v>
-      </c>
-      <c r="D32" t="n">
-        <v>620.0035381107182</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1612,12 +1416,6 @@
       <c r="B33" t="n">
         <v>277</v>
       </c>
-      <c r="C33" t="n">
-        <v>-100.0203697223883</v>
-      </c>
-      <c r="D33" t="n">
-        <v>650.4613110151421</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1626,12 +1424,6 @@
       <c r="B34" t="n">
         <v>290</v>
       </c>
-      <c r="C34" t="n">
-        <v>-56.84760311385759</v>
-      </c>
-      <c r="D34" t="n">
-        <v>637.3905263620478</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1640,12 +1432,6 @@
       <c r="B35" t="n">
         <v>294</v>
       </c>
-      <c r="C35" t="n">
-        <v>-68.3283101225874</v>
-      </c>
-      <c r="D35" t="n">
-        <v>631.7679691118626</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1654,12 +1440,6 @@
       <c r="B36" t="n">
         <v>298</v>
       </c>
-      <c r="C36" t="n">
-        <v>-63.31436358479044</v>
-      </c>
-      <c r="D36" t="n">
-        <v>672.2558479197266</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1668,12 +1448,6 @@
       <c r="B37" t="n">
         <v>303</v>
       </c>
-      <c r="C37" t="n">
-        <v>-31.54824706818674</v>
-      </c>
-      <c r="D37" t="n">
-        <v>668.4462764618791</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1682,12 +1456,6 @@
       <c r="B38" t="n">
         <v>307</v>
       </c>
-      <c r="C38" t="n">
-        <v>-78.14015460875696</v>
-      </c>
-      <c r="D38" t="n">
-        <v>649.1865393647207</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1696,12 +1464,6 @@
       <c r="B39" t="n">
         <v>311</v>
       </c>
-      <c r="C39" t="n">
-        <v>-36.6470723068541</v>
-      </c>
-      <c r="D39" t="n">
-        <v>658.4779213020892</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1710,12 +1472,6 @@
       <c r="B40" t="n">
         <v>316</v>
       </c>
-      <c r="C40" t="n">
-        <v>18.52022725296345</v>
-      </c>
-      <c r="D40" t="n">
-        <v>680.1132854546338</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1724,12 +1480,6 @@
       <c r="B41" t="n">
         <v>320</v>
       </c>
-      <c r="C41" t="n">
-        <v>-37.65822578241712</v>
-      </c>
-      <c r="D41" t="n">
-        <v>674.6064769589825</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1738,12 +1488,6 @@
       <c r="B42" t="n">
         <v>324</v>
       </c>
-      <c r="C42" t="n">
-        <v>-26.90983956096409</v>
-      </c>
-      <c r="D42" t="n">
-        <v>673.9870990725274</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1752,12 +1496,6 @@
       <c r="B43" t="n">
         <v>328</v>
       </c>
-      <c r="C43" t="n">
-        <v>-19.02759872571339</v>
-      </c>
-      <c r="D43" t="n">
-        <v>673.1548667518067</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1766,12 +1504,6 @@
       <c r="B44" t="n">
         <v>337</v>
       </c>
-      <c r="C44" t="n">
-        <v>-24.04571053562657</v>
-      </c>
-      <c r="D44" t="n">
-        <v>696.2396033680282</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1780,12 +1512,6 @@
       <c r="B45" t="n">
         <v>341</v>
       </c>
-      <c r="C45" t="n">
-        <v>-9.502454328585516</v>
-      </c>
-      <c r="D45" t="n">
-        <v>686.0661627029971</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1794,12 +1520,6 @@
       <c r="B46" t="n">
         <v>346</v>
       </c>
-      <c r="C46" t="n">
-        <v>2.790800104704386</v>
-      </c>
-      <c r="D46" t="n">
-        <v>699.4494248521837</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1808,12 +1528,6 @@
       <c r="B47" t="n">
         <v>350</v>
       </c>
-      <c r="C47" t="n">
-        <v>3.406951863223717</v>
-      </c>
-      <c r="D47" t="n">
-        <v>721.049617922164</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1822,12 +1536,6 @@
       <c r="B48" t="n">
         <v>354</v>
       </c>
-      <c r="C48" t="n">
-        <v>21.37068329864386</v>
-      </c>
-      <c r="D48" t="n">
-        <v>720.7517613469406</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1836,12 +1544,6 @@
       <c r="B49" t="n">
         <v>358</v>
       </c>
-      <c r="C49" t="n">
-        <v>-3.00584603076056</v>
-      </c>
-      <c r="D49" t="n">
-        <v>681.4798823409446</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1850,12 +1552,6 @@
       <c r="B50" t="n">
         <v>363</v>
       </c>
-      <c r="C50" t="n">
-        <v>22.98789688180685</v>
-      </c>
-      <c r="D50" t="n">
-        <v>718.7119626088013</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1864,12 +1560,6 @@
       <c r="B51" t="n">
         <v>367</v>
       </c>
-      <c r="C51" t="n">
-        <v>49.64962653783871</v>
-      </c>
-      <c r="D51" t="n">
-        <v>753.1257679660774</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1878,12 +1568,6 @@
       <c r="B52" t="n">
         <v>371</v>
       </c>
-      <c r="C52" t="n">
-        <v>18.8366155685107</v>
-      </c>
-      <c r="D52" t="n">
-        <v>735.427495086809</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1892,12 +1576,6 @@
       <c r="B53" t="n">
         <v>380</v>
       </c>
-      <c r="C53" t="n">
-        <v>7.745948451030511</v>
-      </c>
-      <c r="D53" t="n">
-        <v>724.2844332182709</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1906,12 +1584,6 @@
       <c r="B54" t="n">
         <v>384</v>
       </c>
-      <c r="C54" t="n">
-        <v>31.67666876272718</v>
-      </c>
-      <c r="D54" t="n">
-        <v>739.0014283711428</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1920,12 +1592,6 @@
       <c r="B55" t="n">
         <v>397</v>
       </c>
-      <c r="C55" t="n">
-        <v>30.19646188130806</v>
-      </c>
-      <c r="D55" t="n">
-        <v>770.1782128157218</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1934,12 +1600,6 @@
       <c r="B56" t="n">
         <v>401</v>
       </c>
-      <c r="C56" t="n">
-        <v>95.67561726391304</v>
-      </c>
-      <c r="D56" t="n">
-        <v>763.0361617298474</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1948,12 +1608,6 @@
       <c r="B57" t="n">
         <v>410</v>
       </c>
-      <c r="C57" t="n">
-        <v>66.40129309108843</v>
-      </c>
-      <c r="D57" t="n">
-        <v>765.6063429911634</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1962,12 +1616,6 @@
       <c r="B58" t="n">
         <v>414</v>
       </c>
-      <c r="C58" t="n">
-        <v>56.86532764708802</v>
-      </c>
-      <c r="D58" t="n">
-        <v>779.1958964243117</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1976,12 +1624,6 @@
       <c r="B59" t="n">
         <v>418</v>
       </c>
-      <c r="C59" t="n">
-        <v>74.3969612762633</v>
-      </c>
-      <c r="D59" t="n">
-        <v>801.0576555406134</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1990,12 +1632,6 @@
       <c r="B60" t="n">
         <v>427</v>
       </c>
-      <c r="C60" t="n">
-        <v>63.57720631138834</v>
-      </c>
-      <c r="D60" t="n">
-        <v>819.1841657180864</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2004,12 +1640,6 @@
       <c r="B61" t="n">
         <v>431</v>
       </c>
-      <c r="C61" t="n">
-        <v>76.43795407557249</v>
-      </c>
-      <c r="D61" t="n">
-        <v>774.8071006256999</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2018,12 +1648,6 @@
       <c r="B62" t="n">
         <v>453</v>
       </c>
-      <c r="C62" t="n">
-        <v>94.37100758435501</v>
-      </c>
-      <c r="D62" t="n">
-        <v>820.116707537319</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2032,12 +1656,6 @@
       <c r="B63" t="n">
         <v>457</v>
       </c>
-      <c r="C63" t="n">
-        <v>104.5635758890956</v>
-      </c>
-      <c r="D63" t="n">
-        <v>801.4720767894507</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2046,12 +1664,6 @@
       <c r="B64" t="n">
         <v>461</v>
       </c>
-      <c r="C64" t="n">
-        <v>121.1114224617793</v>
-      </c>
-      <c r="D64" t="n">
-        <v>815.4980317036354</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2060,12 +1672,6 @@
       <c r="B65" t="n">
         <v>465</v>
       </c>
-      <c r="C65" t="n">
-        <v>124.4861507962638</v>
-      </c>
-      <c r="D65" t="n">
-        <v>814.182321186645</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2074,12 +1680,6 @@
       <c r="B66" t="n">
         <v>470</v>
       </c>
-      <c r="C66" t="n">
-        <v>135.8296722432809</v>
-      </c>
-      <c r="D66" t="n">
-        <v>825.036094236673</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2088,12 +1688,6 @@
       <c r="B67" t="n">
         <v>474</v>
       </c>
-      <c r="C67" t="n">
-        <v>136.8442081189297</v>
-      </c>
-      <c r="D67" t="n">
-        <v>830.8948156271952</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2102,12 +1696,6 @@
       <c r="B68" t="n">
         <v>478</v>
       </c>
-      <c r="C68" t="n">
-        <v>132.5873921572982</v>
-      </c>
-      <c r="D68" t="n">
-        <v>841.4662607242471</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2116,12 +1704,6 @@
       <c r="B69" t="n">
         <v>483</v>
       </c>
-      <c r="C69" t="n">
-        <v>115.6063781267159</v>
-      </c>
-      <c r="D69" t="n">
-        <v>839.7292026132671</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2129,12 +1711,6 @@
       </c>
       <c r="B70" t="n">
         <v>487</v>
-      </c>
-      <c r="C70" t="n">
-        <v>137.74517546868</v>
-      </c>
-      <c r="D70" t="n">
-        <v>842.4179404422808</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
+++ b/po_analysis_by_asin/B08LGKGBKT_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,14 @@
         <v>992</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -950,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1130,6 +1138,14 @@
         <v>992</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1141,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,7 +1182,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3">
@@ -1174,7 +1190,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1182,7 +1198,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1190,7 +1206,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1198,7 +1214,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1206,7 +1222,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1214,7 +1230,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1222,7 +1238,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1230,7 +1246,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1238,7 +1254,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1246,7 +1262,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
@@ -1254,7 +1270,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>140</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
@@ -1262,7 +1278,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>144</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1286,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>149</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16">
@@ -1278,7 +1294,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>161</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
@@ -1286,7 +1302,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1310,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>174</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -1302,7 +1318,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -1310,7 +1326,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>191</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1334,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1326,7 +1342,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>204</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1334,7 +1350,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -1342,7 +1358,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
@@ -1350,7 +1366,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>217</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -1358,7 +1374,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -1366,7 +1382,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1390,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>230</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29">
@@ -1382,7 +1398,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>238</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30">
@@ -1390,7 +1406,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>243</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31">
@@ -1398,7 +1414,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>247</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32">
@@ -1406,7 +1422,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>268</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="33">
@@ -1414,7 +1430,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1422,7 +1438,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>290</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -1430,7 +1446,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>294</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1438,7 +1454,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>298</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -1446,7 +1462,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>303</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
@@ -1454,7 +1470,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
@@ -1462,7 +1478,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>311</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1486,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>316</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41">
@@ -1478,7 +1494,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>320</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42">
@@ -1486,7 +1502,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>324</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1510,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>328</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44">
@@ -1502,7 +1518,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>337</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
@@ -1510,7 +1526,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>341</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
@@ -1518,7 +1534,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>346</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47">
@@ -1526,7 +1542,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48">
@@ -1534,7 +1550,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>354</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49">
@@ -1542,7 +1558,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>358</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50">
@@ -1550,7 +1566,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>363</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51">
@@ -1558,7 +1574,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>367</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52">
@@ -1566,7 +1582,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>371</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53">
@@ -1574,7 +1590,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
@@ -1582,7 +1598,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>384</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
@@ -1590,7 +1606,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56">
@@ -1598,7 +1614,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>401</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57">
@@ -1606,7 +1622,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
@@ -1614,7 +1630,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1638,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>418</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60">
@@ -1630,7 +1646,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>427</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61">
@@ -1638,7 +1654,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62">
@@ -1646,71 +1662,79 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>453</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>457</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>461</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>465</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>470</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>474</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>478</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>483</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45725.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>487</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
